--- a/output/prediction.xlsx
+++ b/output/prediction.xlsx
@@ -14,21 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="48">
   <si>
     <t>Reason</t>
   </si>
   <si>
-    <t>URTI</t>
-  </si>
-  <si>
-    <t>Seen</t>
-  </si>
-  <si>
-    <t>upper respiratory tract infection|54150009</t>
-  </si>
-  <si>
-    <t>-|-</t>
+    <t>checkup pain</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>22253000|pain</t>
+  </si>
+  <si>
+    <t>pain|22253000</t>
   </si>
   <si>
     <t>Subword</t>
@@ -49,40 +52,112 @@
     <t>ConceptID</t>
   </si>
   <si>
-    <t>back pain</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>22253000|pain</t>
-  </si>
-  <si>
-    <t>Backache|161891005</t>
-  </si>
-  <si>
     <t>21522001|Abdominal pain</t>
   </si>
   <si>
-    <t>Abdominal pain through to back|74704000</t>
+    <t>Abdominal pain|21522001</t>
+  </si>
+  <si>
+    <t>235595009|Gastroesophageal reflux disease#9991008|Abdominal colic</t>
+  </si>
+  <si>
+    <t>Abdominal colic|9991008</t>
+  </si>
+  <si>
+    <t>734163000 (extra info)- 450977006|Results reference set for GP/FP reason for encounter#763288003|patient review#185349003|encounter for check up</t>
+  </si>
+  <si>
+    <t>Pain control care plan|736248007</t>
+  </si>
+  <si>
+    <t>49727002 (extra info)- 275498002|Respiratory tract infection</t>
+  </si>
+  <si>
+    <t>Painful cough|247410004</t>
+  </si>
+  <si>
+    <t>118235002|Eye / vision finding</t>
+  </si>
+  <si>
+    <t>Periorbital pain|86260003</t>
+  </si>
+  <si>
+    <t>39898005 (extra info)- 314938000|Poor sleep pattern#248330001|General growth finding#271795006|Malaise and fatigue#271737000|Anaemia#35240004|Iron deficiency#414916001|Obesity</t>
+  </si>
+  <si>
+    <t>Sleep-related painful erections|230498005</t>
+  </si>
+  <si>
+    <t>34436003 (extra info)- 40733004|Infection</t>
+  </si>
+  <si>
+    <t>Loin pain-haematuria syndrome|86208007</t>
+  </si>
+  <si>
+    <t>417163006|Traumatic AND/OR non-traumatic injury#106028002|Musculoskeletal finding</t>
+  </si>
+  <si>
+    <t>Complex regional pain syndrome, type II|408751001</t>
+  </si>
+  <si>
+    <t>297268004|Ear, nose and throat finding#302775008|Ear, nose and throat tests</t>
+  </si>
+  <si>
+    <t>Pain of ear structure|301354004</t>
+  </si>
+  <si>
+    <t>95320005|Disorder of skin</t>
+  </si>
+  <si>
+    <t>Pain from tissue expander|239215004</t>
+  </si>
+  <si>
+    <t>74732009|Mental illness#162314006|Harmful thoughts#225481000|Abusive behaviour</t>
+  </si>
+  <si>
+    <t>Chronic psychogenic pain|441711008</t>
+  </si>
+  <si>
+    <t>248842004|Female genitalia finding#89164003|breast lump</t>
+  </si>
+  <si>
+    <t>Ovarian pain|279028009</t>
+  </si>
+  <si>
+    <t>x ray request</t>
+  </si>
+  <si>
+    <t>request</t>
   </si>
   <si>
     <t>3457005 (extra info)- 450977006|Results reference set for GP/FP reason for encounter#763288003|patient review#185349003|encounter for check up</t>
   </si>
   <si>
-    <t>Referral to back pain clinic|183868005</t>
-  </si>
-  <si>
-    <t>417163006|Traumatic AND/OR non-traumatic injury#106028002|Musculoskeletal finding</t>
-  </si>
-  <si>
-    <t>Myofascial pain syndrome of lower back|279041008</t>
-  </si>
-  <si>
-    <t>74732009|Mental illness#162314006|Harmful thoughts#225481000|Abusive behaviour</t>
-  </si>
-  <si>
-    <t>Psychogenic backache|192029008</t>
+    <t>Patient referral for consultation|44383000</t>
+  </si>
+  <si>
+    <t>844005 (extra info)- 5294002|Development disorder</t>
+  </si>
+  <si>
+    <t>Patient requests alternative treatment|182890002</t>
+  </si>
+  <si>
+    <t>x ray</t>
+  </si>
+  <si>
+    <t>Refer for X-ray|183830008</t>
+  </si>
+  <si>
+    <t>Contact dermatitis due to X-ray|69827001</t>
+  </si>
+  <si>
+    <t>non pain</t>
+  </si>
+  <si>
+    <t>Non-colicky abdominal pain|162038003</t>
+  </si>
+  <si>
+    <t>Sympathetically independent pain|279052002</t>
   </si>
 </sst>
 </file>
@@ -414,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:CA4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,201 +505,630 @@
     <col min="25" max="25" width="30.7109375" customWidth="1"/>
     <col min="30" max="30" width="40.7109375" customWidth="1"/>
     <col min="31" max="31" width="30.7109375" customWidth="1"/>
+    <col min="36" max="36" width="40.7109375" customWidth="1"/>
+    <col min="37" max="37" width="30.7109375" customWidth="1"/>
+    <col min="42" max="42" width="40.7109375" customWidth="1"/>
+    <col min="43" max="43" width="30.7109375" customWidth="1"/>
+    <col min="48" max="48" width="40.7109375" customWidth="1"/>
+    <col min="49" max="49" width="30.7109375" customWidth="1"/>
+    <col min="54" max="54" width="40.7109375" customWidth="1"/>
+    <col min="55" max="55" width="30.7109375" customWidth="1"/>
+    <col min="60" max="60" width="40.7109375" customWidth="1"/>
+    <col min="61" max="61" width="30.7109375" customWidth="1"/>
+    <col min="66" max="66" width="40.7109375" customWidth="1"/>
+    <col min="67" max="67" width="30.7109375" customWidth="1"/>
+    <col min="72" max="72" width="40.7109375" customWidth="1"/>
+    <col min="73" max="73" width="30.7109375" customWidth="1"/>
+    <col min="78" max="78" width="40.7109375" customWidth="1"/>
+    <col min="79" max="79" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:79">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>10</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:79">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2">
+        <v>2</v>
+      </c>
+      <c r="AB2">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2">
+        <v>2</v>
+      </c>
+      <c r="AH2">
+        <v>2</v>
+      </c>
+      <c r="AI2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2">
+        <v>2</v>
+      </c>
+      <c r="AN2">
+        <v>2</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS2">
+        <v>2</v>
+      </c>
+      <c r="AT2">
+        <v>2</v>
+      </c>
+      <c r="AU2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY2">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="AZ2">
+        <v>3</v>
+      </c>
+      <c r="BA2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE2">
+        <v>3</v>
+      </c>
+      <c r="BF2">
+        <v>3</v>
+      </c>
+      <c r="BG2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK2">
+        <v>3</v>
+      </c>
+      <c r="BL2">
+        <v>3</v>
+      </c>
+      <c r="BM2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BQ2">
+        <v>3</v>
+      </c>
+      <c r="BR2">
+        <v>6</v>
+      </c>
+      <c r="BS2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BW2">
+        <v>3</v>
+      </c>
+      <c r="BX2">
+        <v>5</v>
+      </c>
+      <c r="BY2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:79">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
+      <c r="J3">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="T3" t="s">
+        <v>42</v>
       </c>
       <c r="U3">
         <v>5</v>
       </c>
       <c r="V3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="W3" t="b">
         <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Y3" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>42</v>
       </c>
       <c r="AA3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC3" t="b">
         <v>0</v>
       </c>
       <c r="AD3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:79">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/output/prediction.xlsx
+++ b/output/prediction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>Reason</t>
   </si>
@@ -64,10 +64,10 @@
     <t>Gynae.</t>
   </si>
   <si>
+    <t>Developmental / Behavioural</t>
+  </si>
+  <si>
     <t>x ray request</t>
-  </si>
-  <si>
-    <t>Developmental / Behavioural</t>
   </si>
   <si>
     <t>non pain</t>
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,9 +421,10 @@
     <col min="12" max="12" width="40.7109375" customWidth="1"/>
     <col min="13" max="13" width="40.7109375" customWidth="1"/>
     <col min="14" max="14" width="40.7109375" customWidth="1"/>
+    <col min="15" max="15" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,8 +467,11 @@
       <c r="N1" t="s">
         <v>2</v>
       </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -510,25 +514,28 @@
       <c r="N2" t="s">
         <v>15</v>
       </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -537,6 +544,9 @@
       </c>
       <c r="C4" t="s">
         <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
